--- a/Code/Results/Cases/Case_7_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_47/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9981294707014721</v>
+        <v>0.9981294707014701</v>
       </c>
       <c r="D2">
-        <v>1.014821552946378</v>
+        <v>1.014821552946377</v>
       </c>
       <c r="E2">
-        <v>1.010186872595155</v>
+        <v>1.010186872595153</v>
       </c>
       <c r="F2">
-        <v>1.012679242627791</v>
+        <v>1.012679242627789</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040153478486605</v>
+        <v>1.040153478486604</v>
       </c>
       <c r="J2">
-        <v>1.020366273282838</v>
+        <v>1.020366273282836</v>
       </c>
       <c r="K2">
-        <v>1.026078190731976</v>
+        <v>1.026078190731975</v>
       </c>
       <c r="L2">
-        <v>1.021506089198857</v>
+        <v>1.021506089198855</v>
       </c>
       <c r="M2">
-        <v>1.023964717002522</v>
+        <v>1.02396471700252</v>
       </c>
       <c r="N2">
-        <v>1.021815310428547</v>
+        <v>1.021815310428546</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -468,7 +468,7 @@
         <v>1.02173800531189</v>
       </c>
       <c r="E3">
-        <v>1.01831378587607</v>
+        <v>1.018313785876071</v>
       </c>
       <c r="F3">
         <v>1.021650230066455</v>
@@ -483,13 +483,13 @@
         <v>1.027576875901806</v>
       </c>
       <c r="K3">
-        <v>1.032100098946043</v>
+        <v>1.032100098946042</v>
       </c>
       <c r="L3">
         <v>1.028717580532644</v>
       </c>
       <c r="M3">
-        <v>1.032013388313431</v>
+        <v>1.032013388313432</v>
       </c>
       <c r="N3">
         <v>1.029036152930302</v>
@@ -503,7 +503,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012994992805975</v>
+        <v>1.012994992805974</v>
       </c>
       <c r="D4">
         <v>1.026055814953403</v>
@@ -530,7 +530,7 @@
         <v>1.033216084527999</v>
       </c>
       <c r="M4">
-        <v>1.037038437340891</v>
+        <v>1.03703843734089</v>
       </c>
       <c r="N4">
         <v>1.033537687746631</v>
@@ -547,10 +547,10 @@
         <v>1.015349392278237</v>
       </c>
       <c r="D5">
-        <v>1.027835692553532</v>
+        <v>1.027835692553531</v>
       </c>
       <c r="E5">
-        <v>1.025486575103399</v>
+        <v>1.025486575103398</v>
       </c>
       <c r="F5">
         <v>1.029571895257167</v>
@@ -562,10 +562,10 @@
         <v>1.044820360057092</v>
       </c>
       <c r="J5">
-        <v>1.033923585276774</v>
+        <v>1.033923585276773</v>
       </c>
       <c r="K5">
-        <v>1.0373929050823</v>
+        <v>1.037392905082299</v>
       </c>
       <c r="L5">
         <v>1.035069690619713</v>
@@ -574,7 +574,7 @@
         <v>1.039110056512316</v>
       </c>
       <c r="N5">
-        <v>1.03539187536056</v>
+        <v>1.035391875360559</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -588,13 +588,13 @@
         <v>1.015742042444352</v>
       </c>
       <c r="D6">
-        <v>1.028132535306284</v>
+        <v>1.028132535306285</v>
       </c>
       <c r="E6">
-        <v>1.025835973923488</v>
+        <v>1.025835973923489</v>
       </c>
       <c r="F6">
-        <v>1.029957879692101</v>
+        <v>1.029957879692102</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -603,19 +603,19 @@
         <v>1.044925514430743</v>
       </c>
       <c r="J6">
-        <v>1.03423230138033</v>
+        <v>1.034232301380331</v>
       </c>
       <c r="K6">
-        <v>1.037650153115542</v>
+        <v>1.037650153115543</v>
       </c>
       <c r="L6">
-        <v>1.03537878729613</v>
+        <v>1.035378787296131</v>
       </c>
       <c r="M6">
         <v>1.039455570025573</v>
       </c>
       <c r="N6">
-        <v>1.035701029876393</v>
+        <v>1.035701029876394</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -629,7 +629,7 @@
         <v>1.013026632865659</v>
       </c>
       <c r="D7">
-        <v>1.026079733596451</v>
+        <v>1.02607973359645</v>
       </c>
       <c r="E7">
         <v>1.023420157858327</v>
@@ -656,7 +656,7 @@
         <v>1.037066275568258</v>
       </c>
       <c r="N7">
-        <v>1.033562610531491</v>
+        <v>1.03356261053149</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -673,7 +673,7 @@
         <v>1.017193158147013</v>
       </c>
       <c r="E8">
-        <v>1.01297258340811</v>
+        <v>1.012972583408109</v>
       </c>
       <c r="F8">
         <v>1.015753810065771</v>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0410116802608</v>
+        <v>1.041011680260799</v>
       </c>
       <c r="J8">
         <v>1.022840129867541</v>
@@ -694,7 +694,7 @@
         <v>1.023979653878311</v>
       </c>
       <c r="M8">
-        <v>1.026724531968475</v>
+        <v>1.026724531968474</v>
       </c>
       <c r="N8">
         <v>1.024292680173355</v>
@@ -708,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9787608594028641</v>
+        <v>0.9787608594028646</v>
       </c>
       <c r="D9">
         <v>1.000203824164894</v>
       </c>
       <c r="E9">
-        <v>0.9930336265125679</v>
+        <v>0.9930336265125683</v>
       </c>
       <c r="F9">
-        <v>0.9937558328809776</v>
+        <v>0.9937558328809781</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>1.034798737301461</v>
       </c>
       <c r="J9">
-        <v>1.005086582687978</v>
+        <v>1.005086582687979</v>
       </c>
       <c r="K9">
         <v>1.013293595329521</v>
@@ -738,7 +738,7 @@
         <v>1.006951036288537</v>
       </c>
       <c r="N9">
-        <v>1.006513920920437</v>
+        <v>1.006513920920438</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9622641638692417</v>
+        <v>0.9622641638692422</v>
       </c>
       <c r="D10">
-        <v>0.9877818494683389</v>
+        <v>0.9877818494683392</v>
       </c>
       <c r="E10">
-        <v>0.9784716987232903</v>
+        <v>0.978471698723291</v>
       </c>
       <c r="F10">
-        <v>0.9776988137737685</v>
+        <v>0.9776988137737691</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030173227465954</v>
+        <v>1.030173227465955</v>
       </c>
       <c r="J10">
-        <v>0.9920593136617605</v>
+        <v>0.9920593136617608</v>
       </c>
       <c r="K10">
-        <v>1.002375267076636</v>
+        <v>1.002375267076637</v>
       </c>
       <c r="L10">
-        <v>0.9932408453421744</v>
+        <v>0.993240845342175</v>
       </c>
       <c r="M10">
-        <v>0.9924827455119941</v>
+        <v>0.9924827455119947</v>
       </c>
       <c r="N10">
-        <v>0.993468151677954</v>
+        <v>0.9934681516779543</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,16 +790,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9546864606682556</v>
+        <v>0.9546864606682551</v>
       </c>
       <c r="D11">
-        <v>0.9820871084915334</v>
+        <v>0.9820871084915332</v>
       </c>
       <c r="E11">
-        <v>0.9717979981856506</v>
+        <v>0.9717979981856502</v>
       </c>
       <c r="F11">
-        <v>0.9703411048945432</v>
+        <v>0.9703411048945423</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -808,19 +808,19 @@
         <v>1.028033354013527</v>
       </c>
       <c r="J11">
-        <v>0.9860738712916708</v>
+        <v>0.9860738712916706</v>
       </c>
       <c r="K11">
-        <v>0.9973549310271286</v>
+        <v>0.9973549310271281</v>
       </c>
       <c r="L11">
-        <v>0.9872721082217992</v>
+        <v>0.9872721082217989</v>
       </c>
       <c r="M11">
-        <v>0.9858448905450619</v>
+        <v>0.9858448905450612</v>
       </c>
       <c r="N11">
-        <v>0.9874742092931591</v>
+        <v>0.9874742092931589</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,16 +831,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9517980381775977</v>
+        <v>0.9517980381775983</v>
       </c>
       <c r="D12">
-        <v>0.9799185286748406</v>
+        <v>0.9799185286748413</v>
       </c>
       <c r="E12">
-        <v>0.9692567499405254</v>
+        <v>0.9692567499405258</v>
       </c>
       <c r="F12">
-        <v>0.9675394853825627</v>
+        <v>0.9675394853825632</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -849,19 +849,19 @@
         <v>1.027215606717169</v>
       </c>
       <c r="J12">
-        <v>0.9837923896113662</v>
+        <v>0.9837923896113668</v>
       </c>
       <c r="K12">
-        <v>0.9954408428698108</v>
+        <v>0.9954408428698115</v>
       </c>
       <c r="L12">
-        <v>0.9849976340657512</v>
+        <v>0.9849976340657518</v>
       </c>
       <c r="M12">
-        <v>0.9833161694777011</v>
+        <v>0.9833161694777014</v>
       </c>
       <c r="N12">
-        <v>0.9851894876471786</v>
+        <v>0.9851894876471792</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9524211038446295</v>
+        <v>0.9524211038446292</v>
       </c>
       <c r="D13">
-        <v>0.9803862137227376</v>
+        <v>0.9803862137227375</v>
       </c>
       <c r="E13">
-        <v>0.969804804018204</v>
+        <v>0.9698048040182033</v>
       </c>
       <c r="F13">
-        <v>0.9681436895710451</v>
+        <v>0.9681436895710446</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027392094626579</v>
+        <v>1.027392094626578</v>
       </c>
       <c r="J13">
-        <v>0.9842845266607549</v>
+        <v>0.9842845266607545</v>
       </c>
       <c r="K13">
-        <v>0.9958537494281429</v>
+        <v>0.9958537494281426</v>
       </c>
       <c r="L13">
-        <v>0.985488230326247</v>
+        <v>0.9854882303262464</v>
       </c>
       <c r="M13">
-        <v>0.9838615735729223</v>
+        <v>0.9838615735729218</v>
       </c>
       <c r="N13">
-        <v>0.9856823235876264</v>
+        <v>0.9856823235876259</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,16 +913,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9544492612508232</v>
+        <v>0.954449261250824</v>
       </c>
       <c r="D14">
-        <v>0.9819089778565004</v>
+        <v>0.9819089778565009</v>
       </c>
       <c r="E14">
-        <v>0.9715892546613561</v>
+        <v>0.9715892546613571</v>
       </c>
       <c r="F14">
-        <v>0.9701109726836639</v>
+        <v>0.9701109726836651</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -931,19 +931,19 @@
         <v>1.027966240921481</v>
       </c>
       <c r="J14">
-        <v>0.985886512634311</v>
+        <v>0.9858865126343118</v>
       </c>
       <c r="K14">
-        <v>0.997197752298704</v>
+        <v>0.9971977522987046</v>
       </c>
       <c r="L14">
-        <v>0.9870853119624674</v>
+        <v>0.9870853119624684</v>
       </c>
       <c r="M14">
-        <v>0.9856371991205795</v>
+        <v>0.9856371991205803</v>
       </c>
       <c r="N14">
-        <v>0.9872865845650151</v>
+        <v>0.9872865845650161</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,16 +954,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9556888271050867</v>
+        <v>0.9556888271050885</v>
       </c>
       <c r="D15">
-        <v>0.9828399477902674</v>
+        <v>0.9828399477902688</v>
       </c>
       <c r="E15">
-        <v>0.9726802215328522</v>
+        <v>0.9726802215328541</v>
       </c>
       <c r="F15">
-        <v>0.9713137273791507</v>
+        <v>0.9713137273791529</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -972,19 +972,19 @@
         <v>1.028316879908178</v>
       </c>
       <c r="J15">
-        <v>0.9868656206593651</v>
+        <v>0.9868656206593672</v>
       </c>
       <c r="K15">
-        <v>0.9980191258583468</v>
+        <v>0.9980191258583484</v>
       </c>
       <c r="L15">
-        <v>0.9880615070361335</v>
+        <v>0.9880615070361354</v>
       </c>
       <c r="M15">
-        <v>0.9867226214721045</v>
+        <v>0.9867226214721067</v>
       </c>
       <c r="N15">
-        <v>0.9882670830357704</v>
+        <v>0.9882670830357722</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,10 +995,10 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9627572301881842</v>
+        <v>0.9627572301881847</v>
       </c>
       <c r="D16">
-        <v>0.9881526597651902</v>
+        <v>0.9881526597651905</v>
       </c>
       <c r="E16">
         <v>0.9789062811392742</v>
@@ -1013,19 +1013,19 @@
         <v>1.03031216868789</v>
       </c>
       <c r="J16">
-        <v>0.9924487636090684</v>
+        <v>0.9924487636090689</v>
       </c>
       <c r="K16">
-        <v>1.002701850083156</v>
+        <v>1.002701850083157</v>
       </c>
       <c r="L16">
         <v>0.9936292948128465</v>
       </c>
       <c r="M16">
-        <v>0.9929148434062038</v>
+        <v>0.992914843406204</v>
       </c>
       <c r="N16">
-        <v>0.9938581546888576</v>
+        <v>0.993858154688858</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,19 +1033,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.967069224671593</v>
+        <v>0.9670692246715913</v>
       </c>
       <c r="D17">
-        <v>0.9913967951267801</v>
+        <v>0.9913967951267789</v>
       </c>
       <c r="E17">
-        <v>0.9827085579548305</v>
+        <v>0.9827085579548284</v>
       </c>
       <c r="F17">
-        <v>0.982370214931082</v>
+        <v>0.9823702149310799</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1054,19 +1054,19 @@
         <v>1.031525569752432</v>
       </c>
       <c r="J17">
-        <v>0.9958544708328742</v>
+        <v>0.9958544708328724</v>
       </c>
       <c r="K17">
-        <v>1.005557370157883</v>
+        <v>1.005557370157881</v>
       </c>
       <c r="L17">
-        <v>0.9970267171589825</v>
+        <v>0.9970267171589804</v>
       </c>
       <c r="M17">
-        <v>0.9966945843328019</v>
+        <v>0.9966945843327997</v>
       </c>
       <c r="N17">
-        <v>0.9972686984075609</v>
+        <v>0.9972686984075597</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,7 +1077,7 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9695430574457313</v>
+        <v>0.9695430574457312</v>
       </c>
       <c r="D18">
         <v>0.9932590047106723</v>
@@ -1086,7 +1086,7 @@
         <v>0.9848913613259119</v>
       </c>
       <c r="F18">
-        <v>0.9847770161291868</v>
+        <v>0.9847770161291867</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,7 +1095,7 @@
         <v>1.032220284584118</v>
       </c>
       <c r="J18">
-        <v>0.9978082106806382</v>
+        <v>0.9978082106806383</v>
       </c>
       <c r="K18">
         <v>1.007195119934618</v>
@@ -1107,7 +1107,7 @@
         <v>0.998863795766504</v>
       </c>
       <c r="N18">
-        <v>0.999225212790006</v>
+        <v>0.9992252127900062</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,16 +1118,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9703798005254878</v>
+        <v>0.9703798005254864</v>
       </c>
       <c r="D19">
-        <v>0.9938890353789218</v>
+        <v>0.9938890353789211</v>
       </c>
       <c r="E19">
-        <v>0.9856298969734069</v>
+        <v>0.9856298969734052</v>
       </c>
       <c r="F19">
-        <v>0.9855913620913652</v>
+        <v>0.9855913620913639</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1136,19 +1136,19 @@
         <v>1.03245501623545</v>
       </c>
       <c r="J19">
-        <v>0.9984690078556788</v>
+        <v>0.9984690078556775</v>
       </c>
       <c r="K19">
         <v>1.007748977555695</v>
       </c>
       <c r="L19">
-        <v>0.9996354712416755</v>
+        <v>0.9996354712416742</v>
       </c>
       <c r="M19">
-        <v>0.9995976232653928</v>
+        <v>0.9995976232653915</v>
       </c>
       <c r="N19">
-        <v>0.9998869483728298</v>
+        <v>0.9998869483728287</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,16 +1159,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.966610914442091</v>
+        <v>0.9666109144420916</v>
       </c>
       <c r="D20">
-        <v>0.9910518760871723</v>
+        <v>0.9910518760871726</v>
       </c>
       <c r="E20">
-        <v>0.9823042765191304</v>
+        <v>0.9823042765191312</v>
       </c>
       <c r="F20">
-        <v>0.9819244564989302</v>
+        <v>0.9819244564989313</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1177,19 +1177,19 @@
         <v>1.031396747699662</v>
       </c>
       <c r="J20">
-        <v>0.9954925012888679</v>
+        <v>0.9954925012888685</v>
       </c>
       <c r="K20">
         <v>1.00525391372944</v>
       </c>
       <c r="L20">
-        <v>0.996665588147326</v>
+        <v>0.9966655881473269</v>
       </c>
       <c r="M20">
-        <v>0.9962927675660692</v>
+        <v>0.9962927675660702</v>
       </c>
       <c r="N20">
-        <v>0.9969062148252841</v>
+        <v>0.9969062148252843</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,16 +1200,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9538541304180688</v>
+        <v>0.9538541304180675</v>
       </c>
       <c r="D21">
-        <v>0.9814620853168455</v>
+        <v>0.9814620853168442</v>
       </c>
       <c r="E21">
-        <v>0.971065562063417</v>
+        <v>0.9710655620634162</v>
       </c>
       <c r="F21">
-        <v>0.9695336215732371</v>
+        <v>0.9695336215732361</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1218,19 +1218,19 @@
         <v>1.027797822155629</v>
       </c>
       <c r="J21">
-        <v>0.9854164327723505</v>
+        <v>0.9854164327723495</v>
       </c>
       <c r="K21">
-        <v>0.9968033860976883</v>
+        <v>0.9968033860976871</v>
       </c>
       <c r="L21">
-        <v>0.9866166534917009</v>
+        <v>0.9866166534916999</v>
       </c>
       <c r="M21">
-        <v>0.9851161277755517</v>
+        <v>0.9851161277755508</v>
       </c>
       <c r="N21">
-        <v>0.9868158371357317</v>
+        <v>0.986815837135731</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9454014485647247</v>
+        <v>0.9454014485647263</v>
       </c>
       <c r="D22">
-        <v>0.9751204989768133</v>
+        <v>0.9751204989768144</v>
       </c>
       <c r="E22">
-        <v>0.9636341740462193</v>
+        <v>0.963634174046221</v>
       </c>
       <c r="F22">
-        <v>0.9613408829962028</v>
+        <v>0.9613408829962048</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025401041727112</v>
+        <v>1.025401041727113</v>
       </c>
       <c r="J22">
-        <v>0.978740215614473</v>
+        <v>0.9787402156144746</v>
       </c>
       <c r="K22">
-        <v>0.9912014777129663</v>
+        <v>0.9912014777129676</v>
       </c>
       <c r="L22">
-        <v>0.9799621873823383</v>
+        <v>0.9799621873823398</v>
       </c>
       <c r="M22">
-        <v>0.9777191578918254</v>
+        <v>0.9777191578918273</v>
       </c>
       <c r="N22">
-        <v>0.9801301389837176</v>
+        <v>0.9801301389837188</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9499265803736825</v>
+        <v>0.9499265803736832</v>
       </c>
       <c r="D23">
-        <v>0.9785141213217048</v>
+        <v>0.9785141213217051</v>
       </c>
       <c r="E23">
-        <v>0.967611004935613</v>
+        <v>0.9676110049356134</v>
       </c>
       <c r="F23">
-        <v>0.9657251331910529</v>
+        <v>0.9657251331910535</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026685213790296</v>
+        <v>1.026685213790297</v>
       </c>
       <c r="J23">
-        <v>0.982314214049222</v>
+        <v>0.9823142140492228</v>
       </c>
       <c r="K23">
-        <v>0.9942005814984842</v>
+        <v>0.9942005814984849</v>
       </c>
       <c r="L23">
-        <v>0.9835241819409006</v>
+        <v>0.983524181940901</v>
       </c>
       <c r="M23">
-        <v>0.9816782123225289</v>
+        <v>0.9816782123225297</v>
       </c>
       <c r="N23">
-        <v>0.9837092129061873</v>
+        <v>0.9837092129061878</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9668181320589122</v>
+        <v>0.9668181320589135</v>
       </c>
       <c r="D24">
-        <v>0.9912078225587901</v>
+        <v>0.9912078225587911</v>
       </c>
       <c r="E24">
-        <v>0.9824870615464458</v>
+        <v>0.9824870615464472</v>
       </c>
       <c r="F24">
-        <v>0.9821259938687119</v>
+        <v>0.9821259938687135</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031454996972184</v>
+        <v>1.031454996972185</v>
       </c>
       <c r="J24">
-        <v>0.9956561604843657</v>
+        <v>0.9956561604843669</v>
       </c>
       <c r="K24">
-        <v>1.0053911182287</v>
+        <v>1.005391118228701</v>
       </c>
       <c r="L24">
-        <v>0.9968288661173448</v>
+        <v>0.996828866117346</v>
       </c>
       <c r="M24">
-        <v>0.9964744402914294</v>
+        <v>0.9964744402914308</v>
       </c>
       <c r="N24">
-        <v>0.9970701064356114</v>
+        <v>0.9970701064356124</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,16 +1364,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9848187060941815</v>
+        <v>0.98481870609418</v>
       </c>
       <c r="D25">
-        <v>1.004772513178581</v>
+        <v>1.004772513178579</v>
       </c>
       <c r="E25">
-        <v>0.9983921582038375</v>
+        <v>0.998392158203836</v>
       </c>
       <c r="F25">
-        <v>0.9996660131136783</v>
+        <v>0.9996660131136768</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1382,19 +1382,19 @@
         <v>1.036483554593371</v>
       </c>
       <c r="J25">
-        <v>1.009868009835228</v>
+        <v>1.009868009835226</v>
       </c>
       <c r="K25">
-        <v>1.017297191052049</v>
+        <v>1.017297191052047</v>
       </c>
       <c r="L25">
-        <v>1.011015485227203</v>
+        <v>1.011015485227201</v>
       </c>
       <c r="M25">
-        <v>1.012269516011809</v>
+        <v>1.012269516011808</v>
       </c>
       <c r="N25">
-        <v>1.011302138242673</v>
+        <v>1.011302138242671</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_47/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9981294707014701</v>
+        <v>0.9993063311182107</v>
       </c>
       <c r="D2">
-        <v>1.014821552946377</v>
+        <v>1.015750303439068</v>
       </c>
       <c r="E2">
-        <v>1.010186872595153</v>
+        <v>1.014602568643818</v>
       </c>
       <c r="F2">
-        <v>1.012679242627789</v>
+        <v>1.023487822901487</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040153478486604</v>
+        <v>1.04113753877135</v>
       </c>
       <c r="J2">
-        <v>1.020366273282836</v>
+        <v>1.021507809515663</v>
       </c>
       <c r="K2">
-        <v>1.026078190731975</v>
+        <v>1.026994487255615</v>
       </c>
       <c r="L2">
-        <v>1.021506089198855</v>
+        <v>1.0258621470476</v>
       </c>
       <c r="M2">
-        <v>1.02396471700252</v>
+        <v>1.034629352855622</v>
       </c>
       <c r="N2">
-        <v>1.021815310428546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010615848813891</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.035979186021224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007282797395717</v>
+        <v>1.004165751935513</v>
       </c>
       <c r="D3">
-        <v>1.02173800531189</v>
+        <v>1.019122475538351</v>
       </c>
       <c r="E3">
-        <v>1.018313785876071</v>
+        <v>1.018467890940633</v>
       </c>
       <c r="F3">
-        <v>1.021650230066455</v>
+        <v>1.027139667252034</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042647009255379</v>
+        <v>1.042101897296389</v>
       </c>
       <c r="J3">
-        <v>1.027576875901806</v>
+        <v>1.024543494974531</v>
       </c>
       <c r="K3">
-        <v>1.032100098946042</v>
+        <v>1.029516390346142</v>
       </c>
       <c r="L3">
-        <v>1.028717580532644</v>
+        <v>1.028869801374573</v>
       </c>
       <c r="M3">
-        <v>1.032013388313432</v>
+        <v>1.03743667929452</v>
       </c>
       <c r="N3">
-        <v>1.029036152930302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011680649790732</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.038201007250641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012994992805974</v>
+        <v>1.007241367559404</v>
       </c>
       <c r="D4">
-        <v>1.026055814953403</v>
+        <v>1.021257933387365</v>
       </c>
       <c r="E4">
-        <v>1.023392015356939</v>
+        <v>1.02092084688677</v>
       </c>
       <c r="F4">
-        <v>1.027258230179748</v>
+        <v>1.029460785969101</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044188558506968</v>
+        <v>1.042700384330102</v>
       </c>
       <c r="J4">
-        <v>1.03207202708785</v>
+        <v>1.026461634907948</v>
       </c>
       <c r="K4">
-        <v>1.035849619799213</v>
+        <v>1.031106389158902</v>
       </c>
       <c r="L4">
-        <v>1.033216084527999</v>
+        <v>1.030773166124509</v>
       </c>
       <c r="M4">
-        <v>1.03703843734089</v>
+        <v>1.039216186677167</v>
       </c>
       <c r="N4">
-        <v>1.033537687746631</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.0123526427685</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.039609371157249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015349392278237</v>
+        <v>1.008518500114809</v>
       </c>
       <c r="D5">
-        <v>1.027835692553531</v>
+        <v>1.022144873372176</v>
       </c>
       <c r="E5">
-        <v>1.025486575103398</v>
+        <v>1.021940935345766</v>
       </c>
       <c r="F5">
-        <v>1.029571895257167</v>
+        <v>1.030426913037762</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044820360057092</v>
+        <v>1.042946001991575</v>
       </c>
       <c r="J5">
-        <v>1.033923585276773</v>
+        <v>1.027257318052428</v>
       </c>
       <c r="K5">
-        <v>1.037392905082299</v>
+        <v>1.031765089189179</v>
       </c>
       <c r="L5">
-        <v>1.035069690619713</v>
+        <v>1.031563424993023</v>
       </c>
       <c r="M5">
-        <v>1.039110056512316</v>
+        <v>1.03995572118889</v>
       </c>
       <c r="N5">
-        <v>1.035391875360559</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012631195353935</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.040194663625062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015742042444352</v>
+        <v>1.008732023430452</v>
       </c>
       <c r="D6">
-        <v>1.028132535306285</v>
+        <v>1.022293170388004</v>
       </c>
       <c r="E6">
-        <v>1.025835973923489</v>
+        <v>1.022111570939192</v>
       </c>
       <c r="F6">
-        <v>1.029957879692102</v>
+        <v>1.03058857281778</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044925514430743</v>
+        <v>1.042986894680122</v>
       </c>
       <c r="J6">
-        <v>1.034232301380331</v>
+        <v>1.027390298854314</v>
       </c>
       <c r="K6">
-        <v>1.037650153115543</v>
+        <v>1.031875124838838</v>
       </c>
       <c r="L6">
-        <v>1.035378787296131</v>
+        <v>1.031695540700874</v>
       </c>
       <c r="M6">
-        <v>1.039455570025573</v>
+        <v>1.040079397944225</v>
       </c>
       <c r="N6">
-        <v>1.035701029876394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01267773704379</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.040292545519458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013026632865659</v>
+        <v>1.007258494195192</v>
       </c>
       <c r="D7">
-        <v>1.02607973359645</v>
+        <v>1.021269826745655</v>
       </c>
       <c r="E7">
-        <v>1.023420157858327</v>
+        <v>1.020934520597132</v>
       </c>
       <c r="F7">
-        <v>1.027289314170168</v>
+        <v>1.029473732953381</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044197063393727</v>
+        <v>1.042703689649265</v>
       </c>
       <c r="J7">
-        <v>1.032096914529688</v>
+        <v>1.026472308474701</v>
       </c>
       <c r="K7">
-        <v>1.035870368241831</v>
+        <v>1.031115228632175</v>
       </c>
       <c r="L7">
-        <v>1.033240996858428</v>
+        <v>1.030783764141403</v>
       </c>
       <c r="M7">
-        <v>1.037066275568258</v>
+        <v>1.039226101672424</v>
       </c>
       <c r="N7">
-        <v>1.03356261053149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012356380183867</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.039617218220883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001268664985315</v>
+        <v>1.000963205122526</v>
       </c>
       <c r="D8">
-        <v>1.017193158147013</v>
+        <v>1.016899796736696</v>
       </c>
       <c r="E8">
-        <v>1.012972583408109</v>
+        <v>1.015919090883529</v>
       </c>
       <c r="F8">
-        <v>1.015753810065771</v>
+        <v>1.024730867682268</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041011680260799</v>
+        <v>1.041468807803868</v>
       </c>
       <c r="J8">
-        <v>1.022840129867541</v>
+        <v>1.022543503695515</v>
       </c>
       <c r="K8">
-        <v>1.028145166548815</v>
+        <v>1.027855613858583</v>
       </c>
       <c r="L8">
-        <v>1.023979653878311</v>
+        <v>1.026887660534132</v>
       </c>
       <c r="M8">
-        <v>1.026724531968474</v>
+        <v>1.035585948136281</v>
       </c>
       <c r="N8">
-        <v>1.024292680173355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01097929699367</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.036736271431944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9787608594028646</v>
+        <v>0.9893146628133922</v>
       </c>
       <c r="D9">
-        <v>1.000203824164894</v>
+        <v>1.008826392527642</v>
       </c>
       <c r="E9">
-        <v>0.9930336265125683</v>
+        <v>1.00669347322246</v>
       </c>
       <c r="F9">
-        <v>0.9937558328809781</v>
+        <v>1.016035918612278</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034798737301461</v>
+        <v>1.039091484466143</v>
       </c>
       <c r="J9">
-        <v>1.005086582687979</v>
+        <v>1.015250473668281</v>
       </c>
       <c r="K9">
-        <v>1.013293595329521</v>
+        <v>1.021777872607617</v>
       </c>
       <c r="L9">
-        <v>1.006240748567164</v>
+        <v>1.019678878992379</v>
       </c>
       <c r="M9">
-        <v>1.006951036288537</v>
+        <v>1.028874073612147</v>
       </c>
       <c r="N9">
-        <v>1.006513920920438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008416850654364</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.031424224861182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9622641638692422</v>
+        <v>0.9812601201412582</v>
       </c>
       <c r="D10">
-        <v>0.9877818494683392</v>
+        <v>1.003271059081324</v>
       </c>
       <c r="E10">
-        <v>0.978471698723291</v>
+        <v>1.000400419611963</v>
       </c>
       <c r="F10">
-        <v>0.9776988137737691</v>
+        <v>1.010174764686842</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030173227465955</v>
+        <v>1.037408084943092</v>
       </c>
       <c r="J10">
-        <v>0.9920593136617608</v>
+        <v>1.010237499662218</v>
       </c>
       <c r="K10">
-        <v>1.002375267076637</v>
+        <v>1.017581503643063</v>
       </c>
       <c r="L10">
-        <v>0.993240845342175</v>
+        <v>1.014762448120705</v>
       </c>
       <c r="M10">
-        <v>0.9924827455119947</v>
+        <v>1.024362708987383</v>
       </c>
       <c r="N10">
-        <v>0.9934681516779543</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.0066616407473</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.027905834201168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9546864606682551</v>
+        <v>0.9787219852135424</v>
       </c>
       <c r="D11">
-        <v>0.9820871084915332</v>
+        <v>1.001641311763926</v>
       </c>
       <c r="E11">
-        <v>0.9717979981856502</v>
+        <v>0.9987999687715333</v>
       </c>
       <c r="F11">
-        <v>0.9703411048945423</v>
+        <v>1.009085367450862</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028033354013527</v>
+        <v>1.037022660375561</v>
       </c>
       <c r="J11">
-        <v>0.9860738712916706</v>
+        <v>1.009007550366707</v>
       </c>
       <c r="K11">
-        <v>0.9973549310271281</v>
+        <v>1.016532341585661</v>
       </c>
       <c r="L11">
-        <v>0.9872721082217989</v>
+        <v>1.013744551462697</v>
       </c>
       <c r="M11">
-        <v>0.9858448905450612</v>
+        <v>1.023837957118927</v>
       </c>
       <c r="N11">
-        <v>0.9874742092931589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006316359892766</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.027932131231161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9517980381775983</v>
+        <v>0.9781925443781132</v>
       </c>
       <c r="D12">
-        <v>0.9799185286748413</v>
+        <v>1.001374265377124</v>
       </c>
       <c r="E12">
-        <v>0.9692567499405258</v>
+        <v>0.9986696440296308</v>
       </c>
       <c r="F12">
-        <v>0.9675394853825632</v>
+        <v>1.009250200755933</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027215606717169</v>
+        <v>1.037031513034641</v>
       </c>
       <c r="J12">
-        <v>0.9837923896113668</v>
+        <v>1.008949394526555</v>
       </c>
       <c r="K12">
-        <v>0.9954408428698115</v>
+        <v>1.016475183907544</v>
       </c>
       <c r="L12">
-        <v>0.9849976340657518</v>
+        <v>1.013822376019724</v>
       </c>
       <c r="M12">
-        <v>0.9833161694777014</v>
+        <v>1.024202301660975</v>
       </c>
       <c r="N12">
-        <v>0.9851894876471792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006368257266722</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.028550214051633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9524211038446292</v>
+        <v>0.9791729864640134</v>
       </c>
       <c r="D13">
-        <v>0.9803862137227375</v>
+        <v>1.002135396205524</v>
       </c>
       <c r="E13">
-        <v>0.9698048040182033</v>
+        <v>0.9996613734894423</v>
       </c>
       <c r="F13">
-        <v>0.9681436895710446</v>
+        <v>1.010402095426727</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027392094626578</v>
+        <v>1.037347453200467</v>
       </c>
       <c r="J13">
-        <v>0.9842845266607545</v>
+        <v>1.009789753643911</v>
       </c>
       <c r="K13">
-        <v>0.9958537494281426</v>
+        <v>1.017177902597701</v>
       </c>
       <c r="L13">
-        <v>0.9854882303262464</v>
+        <v>1.014751008196951</v>
       </c>
       <c r="M13">
-        <v>0.9838615735729218</v>
+        <v>1.025289310693286</v>
       </c>
       <c r="N13">
-        <v>0.9856823235876259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.00672872945657</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.029688833853308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.954449261250824</v>
+        <v>0.9805346983051675</v>
       </c>
       <c r="D14">
-        <v>0.9819089778565009</v>
+        <v>1.003127550578467</v>
       </c>
       <c r="E14">
-        <v>0.9715892546613571</v>
+        <v>1.000854674187844</v>
       </c>
       <c r="F14">
-        <v>0.9701109726836651</v>
+        <v>1.011646936404097</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027966240921481</v>
+        <v>1.037704668571958</v>
       </c>
       <c r="J14">
-        <v>0.9858865126343118</v>
+        <v>1.010777139542219</v>
       </c>
       <c r="K14">
-        <v>0.9971977522987046</v>
+        <v>1.01800761769817</v>
       </c>
       <c r="L14">
-        <v>0.9870853119624684</v>
+        <v>1.01577743831202</v>
       </c>
       <c r="M14">
-        <v>0.9856371991205803</v>
+        <v>1.026369186323114</v>
       </c>
       <c r="N14">
-        <v>0.9872865845650161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00711769091723</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.030717030978132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9556888271050885</v>
+        <v>0.9811985211043541</v>
       </c>
       <c r="D15">
-        <v>0.9828399477902688</v>
+        <v>1.003595854007882</v>
       </c>
       <c r="E15">
-        <v>0.9726802215328541</v>
+        <v>1.001398179703564</v>
       </c>
       <c r="F15">
-        <v>0.9713137273791529</v>
+        <v>1.012181961343505</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028316879908178</v>
+        <v>1.037859903728384</v>
       </c>
       <c r="J15">
-        <v>0.9868656206593672</v>
+        <v>1.011218968617645</v>
       </c>
       <c r="K15">
-        <v>0.9980191258583484</v>
+        <v>1.01837872246639</v>
       </c>
       <c r="L15">
-        <v>0.9880615070361354</v>
+        <v>1.016221995222724</v>
       </c>
       <c r="M15">
-        <v>0.9867226214721067</v>
+        <v>1.026807070876106</v>
       </c>
       <c r="N15">
-        <v>0.9882670830357722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007281521914511</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.031100906476644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9627572301881847</v>
+        <v>0.9844116631920987</v>
       </c>
       <c r="D16">
-        <v>0.9881526597651905</v>
+        <v>1.005790197117313</v>
       </c>
       <c r="E16">
-        <v>0.9789062811392742</v>
+        <v>1.003865601521515</v>
       </c>
       <c r="F16">
-        <v>0.9781779552208166</v>
+        <v>1.014466813333453</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03031216868789</v>
+        <v>1.038520520256939</v>
       </c>
       <c r="J16">
-        <v>0.9924487636090689</v>
+        <v>1.013178889855117</v>
       </c>
       <c r="K16">
-        <v>1.002701850083157</v>
+        <v>1.020019315967266</v>
       </c>
       <c r="L16">
-        <v>0.9936292948128465</v>
+        <v>1.018128936684462</v>
       </c>
       <c r="M16">
-        <v>0.992914843406204</v>
+        <v>1.028543761543178</v>
       </c>
       <c r="N16">
-        <v>0.993858154688858</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.00795353652009</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.032434619173101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9670692246715913</v>
+        <v>0.9861645444780931</v>
       </c>
       <c r="D17">
-        <v>0.9913967951267789</v>
+        <v>1.006955481535114</v>
       </c>
       <c r="E17">
-        <v>0.9827085579548284</v>
+        <v>1.005135044947616</v>
       </c>
       <c r="F17">
-        <v>0.9823702149310799</v>
+        <v>1.015563536340012</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031525569752432</v>
+        <v>1.038837806704948</v>
       </c>
       <c r="J17">
-        <v>0.9958544708328724</v>
+        <v>1.014164981334361</v>
       </c>
       <c r="K17">
-        <v>1.005557370157881</v>
+        <v>1.020842645234789</v>
       </c>
       <c r="L17">
-        <v>0.9970267171589804</v>
+        <v>1.019053633320978</v>
       </c>
       <c r="M17">
-        <v>0.9966945843327997</v>
+        <v>1.029304074483989</v>
       </c>
       <c r="N17">
-        <v>0.9972686984075597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008265040864778</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.032905740147589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9695430574457312</v>
+        <v>0.9868118697898469</v>
       </c>
       <c r="D18">
-        <v>0.9932590047106723</v>
+        <v>1.007331430645842</v>
       </c>
       <c r="E18">
-        <v>0.9848913613259119</v>
+        <v>1.005458709960122</v>
       </c>
       <c r="F18">
-        <v>0.9847770161291867</v>
+        <v>1.015680830465956</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032220284584118</v>
+        <v>1.038884985709585</v>
       </c>
       <c r="J18">
-        <v>0.9978082106806383</v>
+        <v>1.014382537000614</v>
       </c>
       <c r="K18">
-        <v>1.007195119934618</v>
+        <v>1.021024802755351</v>
       </c>
       <c r="L18">
-        <v>0.998976087444731</v>
+        <v>1.019183879535439</v>
       </c>
       <c r="M18">
-        <v>0.998863795766504</v>
+        <v>1.02923427267048</v>
       </c>
       <c r="N18">
-        <v>0.9992252127900062</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008286542260163</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.032611159582032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9703798005254864</v>
+        <v>0.9864657817256214</v>
       </c>
       <c r="D19">
-        <v>0.9938890353789211</v>
+        <v>1.007002567158968</v>
       </c>
       <c r="E19">
-        <v>0.9856298969734052</v>
+        <v>1.004927003015103</v>
       </c>
       <c r="F19">
-        <v>0.9855913620913639</v>
+        <v>1.014904041824295</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03245501623545</v>
+        <v>1.03869496505793</v>
       </c>
       <c r="J19">
-        <v>0.9984690078556775</v>
+        <v>1.013912348427602</v>
       </c>
       <c r="K19">
-        <v>1.007748977555695</v>
+        <v>1.020637611187268</v>
       </c>
       <c r="L19">
-        <v>0.9996354712416742</v>
+        <v>1.018597138491331</v>
       </c>
       <c r="M19">
-        <v>0.9995976232653915</v>
+        <v>1.02840718620435</v>
       </c>
       <c r="N19">
-        <v>0.9998869483728287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.00805358011605</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.031628875775911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9666109144420916</v>
+        <v>0.9833576442946215</v>
       </c>
       <c r="D20">
-        <v>0.9910518760871726</v>
+        <v>1.004717013317926</v>
       </c>
       <c r="E20">
-        <v>0.9823042765191312</v>
+        <v>1.002038127522539</v>
       </c>
       <c r="F20">
-        <v>0.9819244564989313</v>
+        <v>1.011701262746601</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031396747699662</v>
+        <v>1.037851340695954</v>
       </c>
       <c r="J20">
-        <v>0.9954925012888685</v>
+        <v>1.011545525562098</v>
       </c>
       <c r="K20">
-        <v>1.00525391372944</v>
+        <v>1.018677423754545</v>
       </c>
       <c r="L20">
-        <v>0.9966655881473269</v>
+        <v>1.016045233338504</v>
       </c>
       <c r="M20">
-        <v>0.9962927675660702</v>
+        <v>1.025541433436915</v>
       </c>
       <c r="N20">
-        <v>0.9969062148252843</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007120248592883</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.02882799776069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9538541304180675</v>
+        <v>0.977082862497762</v>
       </c>
       <c r="D21">
-        <v>0.9814620853168442</v>
+        <v>1.000374720288757</v>
       </c>
       <c r="E21">
-        <v>0.9710655620634162</v>
+        <v>0.9970796479276202</v>
       </c>
       <c r="F21">
-        <v>0.9695336215732361</v>
+        <v>1.007011424836135</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027797822155629</v>
+        <v>1.036491658004584</v>
       </c>
       <c r="J21">
-        <v>0.9854164327723495</v>
+        <v>1.007571001669608</v>
       </c>
       <c r="K21">
-        <v>0.9968033860976871</v>
+        <v>1.015348996955597</v>
       </c>
       <c r="L21">
-        <v>0.9866166534916999</v>
+        <v>1.012116559301012</v>
       </c>
       <c r="M21">
-        <v>0.9851161277755508</v>
+        <v>1.021861170110132</v>
       </c>
       <c r="N21">
-        <v>0.986815837135731</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.005712288450793</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.025873888638886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9454014485647263</v>
+        <v>0.9730989937169804</v>
       </c>
       <c r="D22">
-        <v>0.9751204989768144</v>
+        <v>0.9976292323366291</v>
       </c>
       <c r="E22">
-        <v>0.963634174046221</v>
+        <v>0.9939643971499166</v>
       </c>
       <c r="F22">
-        <v>0.9613408829962048</v>
+        <v>1.004094445402592</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025401041727113</v>
+        <v>1.035626297552081</v>
       </c>
       <c r="J22">
-        <v>0.9787402156144746</v>
+        <v>1.005067050459836</v>
       </c>
       <c r="K22">
-        <v>0.9912014777129676</v>
+        <v>1.013247801352271</v>
       </c>
       <c r="L22">
-        <v>0.9799621873823398</v>
+        <v>1.009656376276511</v>
       </c>
       <c r="M22">
-        <v>0.9777191578918273</v>
+        <v>1.019585224574269</v>
       </c>
       <c r="N22">
-        <v>0.9801301389837188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.004829423347264</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.024072590416044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9499265803736832</v>
+        <v>0.9752208697038881</v>
       </c>
       <c r="D23">
-        <v>0.9785141213217051</v>
+        <v>0.9990910442180652</v>
       </c>
       <c r="E23">
-        <v>0.9676110049356134</v>
+        <v>0.9956226641593386</v>
       </c>
       <c r="F23">
-        <v>0.9657251331910535</v>
+        <v>1.005646743039042</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026685213790297</v>
+        <v>1.036088226201565</v>
       </c>
       <c r="J23">
-        <v>0.9823142140492228</v>
+        <v>1.006400813393576</v>
       </c>
       <c r="K23">
-        <v>0.9942005814984849</v>
+        <v>1.014367299675138</v>
       </c>
       <c r="L23">
-        <v>0.983524181940901</v>
+        <v>1.010966503498111</v>
       </c>
       <c r="M23">
-        <v>0.9816782123225297</v>
+        <v>1.020796921668007</v>
       </c>
       <c r="N23">
-        <v>0.9837092129061878</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005299745556609</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.025031589274908</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9668181320589135</v>
+        <v>0.9833598670216211</v>
       </c>
       <c r="D24">
-        <v>0.9912078225587911</v>
+        <v>1.004707996204123</v>
       </c>
       <c r="E24">
-        <v>0.9824870615464472</v>
+        <v>1.002003898417233</v>
       </c>
       <c r="F24">
-        <v>0.9821259938687135</v>
+        <v>1.011629439930041</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031454996972185</v>
+        <v>1.03783740146</v>
       </c>
       <c r="J24">
-        <v>0.9956561604843669</v>
+        <v>1.011513861956073</v>
       </c>
       <c r="K24">
-        <v>1.005391118228701</v>
+        <v>1.01865293553366</v>
       </c>
       <c r="L24">
-        <v>0.996828866117346</v>
+        <v>1.015995914505118</v>
       </c>
       <c r="M24">
-        <v>0.9964744402914308</v>
+        <v>1.025455361751236</v>
       </c>
       <c r="N24">
-        <v>0.9970701064356124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007101551492366</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.028718503733616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.98481870609418</v>
+        <v>0.9923961761529703</v>
       </c>
       <c r="D25">
-        <v>1.004772513178579</v>
+        <v>1.010960140360306</v>
       </c>
       <c r="E25">
-        <v>0.998392158203836</v>
+        <v>1.009127257149104</v>
       </c>
       <c r="F25">
-        <v>0.9996660131136768</v>
+        <v>1.018326224255118</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036483554593371</v>
+        <v>1.039730803122353</v>
       </c>
       <c r="J25">
-        <v>1.009868009835226</v>
+        <v>1.017182177278501</v>
       </c>
       <c r="K25">
-        <v>1.017297191052047</v>
+        <v>1.023390663868577</v>
       </c>
       <c r="L25">
-        <v>1.011015485227201</v>
+        <v>1.021585517451109</v>
       </c>
       <c r="M25">
-        <v>1.012269516011808</v>
+        <v>1.03064655764635</v>
       </c>
       <c r="N25">
-        <v>1.011302138242671</v>
+        <v>1.009096232438371</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.032827043683477</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_47/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9993063311182107</v>
+        <v>1.000101993804321</v>
       </c>
       <c r="D2">
-        <v>1.015750303439068</v>
+        <v>1.016287225916005</v>
       </c>
       <c r="E2">
-        <v>1.014602568643818</v>
+        <v>1.015268064405747</v>
       </c>
       <c r="F2">
-        <v>1.023487822901487</v>
+        <v>1.02401861385736</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04113753877135</v>
+        <v>1.041389002209587</v>
       </c>
       <c r="J2">
-        <v>1.021507809515663</v>
+        <v>1.022279654682404</v>
       </c>
       <c r="K2">
-        <v>1.026994487255615</v>
+        <v>1.027524222977463</v>
       </c>
       <c r="L2">
-        <v>1.0258621470476</v>
+        <v>1.026518711175826</v>
       </c>
       <c r="M2">
-        <v>1.034629352855622</v>
+        <v>1.035153173067834</v>
       </c>
       <c r="N2">
-        <v>1.010615848813891</v>
+        <v>1.012779457124998</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.035979186021224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036393757098656</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.01936859065126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004165751935513</v>
+        <v>1.004618695419538</v>
       </c>
       <c r="D3">
-        <v>1.019122475538351</v>
+        <v>1.01927505804215</v>
       </c>
       <c r="E3">
-        <v>1.018467890940633</v>
+        <v>1.018853854052792</v>
       </c>
       <c r="F3">
-        <v>1.027139667252034</v>
+        <v>1.027445794660223</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.042101897296389</v>
+        <v>1.042190576714858</v>
       </c>
       <c r="J3">
-        <v>1.024543494974531</v>
+        <v>1.024984237170907</v>
       </c>
       <c r="K3">
-        <v>1.029516390346142</v>
+        <v>1.029667110918355</v>
       </c>
       <c r="L3">
-        <v>1.028869801374573</v>
+        <v>1.029251048475625</v>
       </c>
       <c r="M3">
-        <v>1.03743667929452</v>
+        <v>1.037739143759952</v>
       </c>
       <c r="N3">
-        <v>1.011680649790732</v>
+        <v>1.013532790239108</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.038201007250641</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038440388322019</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019844632397023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007241367559404</v>
+        <v>1.007480827986313</v>
       </c>
       <c r="D4">
-        <v>1.021257933387365</v>
+        <v>1.021169667036777</v>
       </c>
       <c r="E4">
-        <v>1.02092084688677</v>
+        <v>1.021132503920618</v>
       </c>
       <c r="F4">
-        <v>1.029460785969101</v>
+        <v>1.029626926102738</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.042700384330102</v>
+        <v>1.042686949489088</v>
       </c>
       <c r="J4">
-        <v>1.026461634907948</v>
+        <v>1.026695090084546</v>
       </c>
       <c r="K4">
-        <v>1.031106389158902</v>
+        <v>1.031019134155561</v>
       </c>
       <c r="L4">
-        <v>1.030773166124509</v>
+        <v>1.030982396915324</v>
       </c>
       <c r="M4">
-        <v>1.039216186677167</v>
+        <v>1.039380460946054</v>
       </c>
       <c r="N4">
-        <v>1.0123526427685</v>
+        <v>1.014008850405641</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039609371157249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039739383375947</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020142166155703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008518500114809</v>
+        <v>1.008670085023248</v>
       </c>
       <c r="D5">
-        <v>1.022144873372176</v>
+        <v>1.021957145854919</v>
       </c>
       <c r="E5">
-        <v>1.021940935345766</v>
+        <v>1.022080807604659</v>
       </c>
       <c r="F5">
-        <v>1.030426913037762</v>
+        <v>1.030535424889686</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.042946001991575</v>
+        <v>1.042890375349812</v>
       </c>
       <c r="J5">
-        <v>1.027257318052428</v>
+        <v>1.027405217223309</v>
       </c>
       <c r="K5">
-        <v>1.031765089189179</v>
+        <v>1.031579454720402</v>
       </c>
       <c r="L5">
-        <v>1.031563424993023</v>
+        <v>1.031701737609951</v>
       </c>
       <c r="M5">
-        <v>1.03995572118889</v>
+        <v>1.040063047384036</v>
       </c>
       <c r="N5">
-        <v>1.012631195353935</v>
+        <v>1.014206329664272</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.040194663625062</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.0402796051435</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020264789403476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008732023430452</v>
+        <v>1.008868960438132</v>
       </c>
       <c r="D6">
-        <v>1.022293170388004</v>
+        <v>1.022088845557444</v>
       </c>
       <c r="E6">
-        <v>1.022111570939192</v>
+        <v>1.022239475586528</v>
       </c>
       <c r="F6">
-        <v>1.03058857281778</v>
+        <v>1.030687478447505</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042986894680122</v>
+        <v>1.042924226138428</v>
       </c>
       <c r="J6">
-        <v>1.027390298854314</v>
+        <v>1.027523923697404</v>
       </c>
       <c r="K6">
-        <v>1.031875124838838</v>
+        <v>1.03167306757743</v>
       </c>
       <c r="L6">
-        <v>1.031695540700874</v>
+        <v>1.03182202582697</v>
       </c>
       <c r="M6">
-        <v>1.040079397944225</v>
+        <v>1.040177227903698</v>
       </c>
       <c r="N6">
-        <v>1.01267773704379</v>
+        <v>1.014239333553714</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.040292545519458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040369971391204</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020285235628489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007258494195192</v>
+        <v>1.007508588336574</v>
       </c>
       <c r="D7">
-        <v>1.021269826745655</v>
+        <v>1.021189487232436</v>
       </c>
       <c r="E7">
-        <v>1.020934520597132</v>
+        <v>1.021155324601392</v>
       </c>
       <c r="F7">
-        <v>1.029473732953381</v>
+        <v>1.029647107117094</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.042703689649265</v>
+        <v>1.042693939197933</v>
       </c>
       <c r="J7">
-        <v>1.026472308474701</v>
+        <v>1.026716133359224</v>
       </c>
       <c r="K7">
-        <v>1.031115228632175</v>
+        <v>1.031035809298342</v>
       </c>
       <c r="L7">
-        <v>1.030783764141403</v>
+        <v>1.031002038007724</v>
       </c>
       <c r="M7">
-        <v>1.039226101672424</v>
+        <v>1.039397529454828</v>
       </c>
       <c r="N7">
-        <v>1.012356380183867</v>
+        <v>1.014041194094471</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039617218220883</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039752891970378</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020146644681807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000963205122526</v>
+        <v>1.00167802055834</v>
       </c>
       <c r="D8">
-        <v>1.016899796736696</v>
+        <v>1.017334210112081</v>
       </c>
       <c r="E8">
-        <v>1.015919090883529</v>
+        <v>1.016520268081991</v>
       </c>
       <c r="F8">
-        <v>1.024730867682268</v>
+        <v>1.025209556456515</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.041468807803868</v>
+        <v>1.041677944260673</v>
       </c>
       <c r="J8">
-        <v>1.022543503695515</v>
+        <v>1.023237658732395</v>
       </c>
       <c r="K8">
-        <v>1.027855613858583</v>
+        <v>1.028284388210784</v>
       </c>
       <c r="L8">
-        <v>1.026887660534132</v>
+        <v>1.027481016719588</v>
       </c>
       <c r="M8">
-        <v>1.035585948136281</v>
+        <v>1.036058541538485</v>
       </c>
       <c r="N8">
-        <v>1.01097929699367</v>
+        <v>1.013127143863786</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.036736271431944</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037110299291476</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019540600542571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9893146628133922</v>
+        <v>0.9908794118768948</v>
       </c>
       <c r="D9">
-        <v>1.008826392527642</v>
+        <v>1.010202573289315</v>
       </c>
       <c r="E9">
-        <v>1.00669347322246</v>
+        <v>1.007986812594737</v>
       </c>
       <c r="F9">
-        <v>1.016035918612278</v>
+        <v>1.017071537473392</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.039091484466143</v>
+        <v>1.039699016052799</v>
       </c>
       <c r="J9">
-        <v>1.015250473668281</v>
+        <v>1.016758404249541</v>
       </c>
       <c r="K9">
-        <v>1.021777872607617</v>
+        <v>1.023132261532429</v>
       </c>
       <c r="L9">
-        <v>1.019678878992379</v>
+        <v>1.020951624873792</v>
       </c>
       <c r="M9">
-        <v>1.028874073612147</v>
+        <v>1.029893582428703</v>
       </c>
       <c r="N9">
-        <v>1.008416850654364</v>
+        <v>1.011330094633738</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.031424224861182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032231107597118</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018380718754557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9812601201412582</v>
+        <v>0.9834856511700519</v>
       </c>
       <c r="D10">
-        <v>1.003271059081324</v>
+        <v>1.005352881290589</v>
       </c>
       <c r="E10">
-        <v>1.000400419611963</v>
+        <v>1.002231974470321</v>
       </c>
       <c r="F10">
-        <v>1.010174764686842</v>
+        <v>1.011643541338151</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.037408084943092</v>
+        <v>1.038314429206883</v>
       </c>
       <c r="J10">
-        <v>1.010237499662218</v>
+        <v>1.012370159175474</v>
       </c>
       <c r="K10">
-        <v>1.017581503643063</v>
+        <v>1.019626155753479</v>
       </c>
       <c r="L10">
-        <v>1.014762448120705</v>
+        <v>1.01656104652765</v>
       </c>
       <c r="M10">
-        <v>1.024362708987383</v>
+        <v>1.025805702926253</v>
       </c>
       <c r="N10">
-        <v>1.0066616407473</v>
+        <v>1.010232395860259</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.027905834201168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029047813674375</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017586795339341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9787219852135424</v>
+        <v>0.9812021530175422</v>
       </c>
       <c r="D11">
-        <v>1.001641311763926</v>
+        <v>1.00397304494196</v>
       </c>
       <c r="E11">
-        <v>0.9987999687715333</v>
+        <v>1.000836286554205</v>
       </c>
       <c r="F11">
-        <v>1.009085367450862</v>
+        <v>1.010717747001837</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.037022660375561</v>
+        <v>1.03803174733649</v>
       </c>
       <c r="J11">
-        <v>1.009007550366707</v>
+        <v>1.011378406980292</v>
       </c>
       <c r="K11">
-        <v>1.016532341585661</v>
+        <v>1.018820422396258</v>
       </c>
       <c r="L11">
-        <v>1.013744551462697</v>
+        <v>1.015742448949755</v>
       </c>
       <c r="M11">
-        <v>1.023837957118927</v>
+        <v>1.025440333699222</v>
       </c>
       <c r="N11">
-        <v>1.006316359892766</v>
+        <v>1.010253410480033</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.027932131231161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029199592857982</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017456729587118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9781925443781132</v>
+        <v>0.9807200355269947</v>
       </c>
       <c r="D12">
-        <v>1.001374265377124</v>
+        <v>1.003747450317224</v>
       </c>
       <c r="E12">
-        <v>0.9986696440296308</v>
+        <v>1.000740532993938</v>
       </c>
       <c r="F12">
-        <v>1.009250200755933</v>
+        <v>1.010910029386294</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.037031513034641</v>
+        <v>1.03805433438227</v>
       </c>
       <c r="J12">
-        <v>1.008949394526555</v>
+        <v>1.011363380650136</v>
       </c>
       <c r="K12">
-        <v>1.016475183907544</v>
+        <v>1.018803205546847</v>
       </c>
       <c r="L12">
-        <v>1.013822376019724</v>
+        <v>1.01585355929927</v>
       </c>
       <c r="M12">
-        <v>1.024202301660975</v>
+        <v>1.025831153416715</v>
       </c>
       <c r="N12">
-        <v>1.006368257266722</v>
+        <v>1.010404428974889</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.028550214051633</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029838172167745</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017493172507582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9791729864640134</v>
+        <v>0.9815733089874786</v>
       </c>
       <c r="D13">
-        <v>1.002135396205524</v>
+        <v>1.004377777931133</v>
       </c>
       <c r="E13">
-        <v>0.9996613734894423</v>
+        <v>1.001623354036293</v>
       </c>
       <c r="F13">
-        <v>1.010402095426727</v>
+        <v>1.011974787989357</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.037347453200467</v>
+        <v>1.038310108958127</v>
       </c>
       <c r="J13">
-        <v>1.009789753643911</v>
+        <v>1.012082966035221</v>
       </c>
       <c r="K13">
-        <v>1.017177902597701</v>
+        <v>1.019377830704442</v>
       </c>
       <c r="L13">
-        <v>1.014751008196951</v>
+        <v>1.016675589468765</v>
       </c>
       <c r="M13">
-        <v>1.025289310693286</v>
+        <v>1.026832834501759</v>
       </c>
       <c r="N13">
-        <v>1.00672872945657</v>
+        <v>1.010625939568641</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.029688833853308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030909010352095</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017656852051564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9805346983051675</v>
+        <v>0.9827696052034167</v>
       </c>
       <c r="D14">
-        <v>1.003127550578467</v>
+        <v>1.005202949621007</v>
       </c>
       <c r="E14">
-        <v>1.000854674187844</v>
+        <v>1.002678020679072</v>
       </c>
       <c r="F14">
-        <v>1.011646936404097</v>
+        <v>1.013108805771029</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.037704668571958</v>
+        <v>1.038593110460065</v>
       </c>
       <c r="J14">
-        <v>1.010777139542219</v>
+        <v>1.012913888372134</v>
       </c>
       <c r="K14">
-        <v>1.01800761769817</v>
+        <v>1.02004424947924</v>
       </c>
       <c r="L14">
-        <v>1.01577743831202</v>
+        <v>1.017566512368851</v>
       </c>
       <c r="M14">
-        <v>1.026369186323114</v>
+        <v>1.027804322604104</v>
       </c>
       <c r="N14">
-        <v>1.00711769091723</v>
+        <v>1.010812628628684</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.030717030978132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03185137111626</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017828101276372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9811985211043541</v>
+        <v>0.9833567257068124</v>
       </c>
       <c r="D15">
-        <v>1.003595854007882</v>
+        <v>1.005594391977355</v>
       </c>
       <c r="E15">
-        <v>1.001398179703564</v>
+        <v>1.003158023090312</v>
       </c>
       <c r="F15">
-        <v>1.012181961343505</v>
+        <v>1.013593027660925</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.037859903728384</v>
+        <v>1.038714886873517</v>
       </c>
       <c r="J15">
-        <v>1.011218968617645</v>
+        <v>1.013283266807788</v>
       </c>
       <c r="K15">
-        <v>1.01837872246639</v>
+        <v>1.020340226233858</v>
       </c>
       <c r="L15">
-        <v>1.016221995222724</v>
+        <v>1.01794903054426</v>
       </c>
       <c r="M15">
-        <v>1.026807070876106</v>
+        <v>1.028192543176311</v>
       </c>
       <c r="N15">
-        <v>1.007281521914511</v>
+        <v>1.010878407910339</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.031100906476644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032195963014199</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017899063914773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9844116631920987</v>
+        <v>0.9862326858418696</v>
       </c>
       <c r="D16">
-        <v>1.005790197117313</v>
+        <v>1.007450467869406</v>
       </c>
       <c r="E16">
-        <v>1.003865601521515</v>
+        <v>1.00535007524881</v>
       </c>
       <c r="F16">
-        <v>1.014466813333453</v>
+        <v>1.015657166165071</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.038520520256939</v>
+        <v>1.039231821421652</v>
       </c>
       <c r="J16">
-        <v>1.013178889855117</v>
+        <v>1.01492480866291</v>
       </c>
       <c r="K16">
-        <v>1.020019315967266</v>
+        <v>1.021650205892642</v>
       </c>
       <c r="L16">
-        <v>1.018128936684462</v>
+        <v>1.019587003788509</v>
       </c>
       <c r="M16">
-        <v>1.028543761543178</v>
+        <v>1.029713500314881</v>
       </c>
       <c r="N16">
-        <v>1.00795353652009</v>
+        <v>1.01111159959218</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.032434619173101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.03335919030304</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018187008927829</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9861645444780931</v>
+        <v>0.9878276294828051</v>
       </c>
       <c r="D17">
-        <v>1.006955481535114</v>
+        <v>1.008454659896928</v>
       </c>
       <c r="E17">
-        <v>1.005135044947616</v>
+        <v>1.006492362215808</v>
       </c>
       <c r="F17">
-        <v>1.015563536340012</v>
+        <v>1.016651740757824</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.038837806704948</v>
+        <v>1.039482446454658</v>
       </c>
       <c r="J17">
-        <v>1.014164981334361</v>
+        <v>1.015761746298598</v>
       </c>
       <c r="K17">
-        <v>1.020842645234789</v>
+        <v>1.022316054638989</v>
       </c>
       <c r="L17">
-        <v>1.019053633320978</v>
+        <v>1.020387506414603</v>
       </c>
       <c r="M17">
-        <v>1.029304074483989</v>
+        <v>1.030373970887123</v>
       </c>
       <c r="N17">
-        <v>1.008265040864778</v>
+        <v>1.011223726039019</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.032905740147589</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.033751480332628</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018320403950169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9868118697898469</v>
+        <v>0.9884385073528162</v>
       </c>
       <c r="D18">
-        <v>1.007331430645842</v>
+        <v>1.008793011701727</v>
       </c>
       <c r="E18">
-        <v>1.005458709960122</v>
+        <v>1.006789356127629</v>
       </c>
       <c r="F18">
-        <v>1.015680830465956</v>
+        <v>1.016747395543031</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.038884985709585</v>
+        <v>1.03951675196185</v>
       </c>
       <c r="J18">
-        <v>1.014382537000614</v>
+        <v>1.015945523480275</v>
       </c>
       <c r="K18">
-        <v>1.021024802755351</v>
+        <v>1.022461673019238</v>
       </c>
       <c r="L18">
-        <v>1.019183879535439</v>
+        <v>1.020491916574962</v>
       </c>
       <c r="M18">
-        <v>1.02923427267048</v>
+        <v>1.030283175944509</v>
       </c>
       <c r="N18">
-        <v>1.008286542260163</v>
+        <v>1.01119425295437</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.032611159582032</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.033440480033089</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018324904667308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9864657817256214</v>
+        <v>0.9881535789865675</v>
       </c>
       <c r="D19">
-        <v>1.007002567158968</v>
+        <v>1.00852806740261</v>
       </c>
       <c r="E19">
-        <v>1.004927003015103</v>
+        <v>1.006311513686236</v>
       </c>
       <c r="F19">
-        <v>1.014904041824295</v>
+        <v>1.01601368759882</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.03869496505793</v>
+        <v>1.03935780559856</v>
       </c>
       <c r="J19">
-        <v>1.013912348427602</v>
+        <v>1.015534429658101</v>
       </c>
       <c r="K19">
-        <v>1.020637611187268</v>
+        <v>1.022137438620831</v>
       </c>
       <c r="L19">
-        <v>1.018597138491331</v>
+        <v>1.01995822057824</v>
       </c>
       <c r="M19">
-        <v>1.02840718620435</v>
+        <v>1.029498519976547</v>
       </c>
       <c r="N19">
-        <v>1.00805358011605</v>
+        <v>1.011020050202495</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.031628875775911</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.032492030635072</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018214178014577</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9833576442946215</v>
+        <v>0.9853747561344165</v>
       </c>
       <c r="D20">
-        <v>1.004717013317926</v>
+        <v>1.006585989518773</v>
       </c>
       <c r="E20">
-        <v>1.002038127522539</v>
+        <v>1.003698366529715</v>
       </c>
       <c r="F20">
-        <v>1.011701262746601</v>
+        <v>1.013032528918303</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.037851340695954</v>
+        <v>1.038666508348402</v>
       </c>
       <c r="J20">
-        <v>1.011545525562098</v>
+        <v>1.013481335184583</v>
       </c>
       <c r="K20">
-        <v>1.018677423754545</v>
+        <v>1.020514012433779</v>
       </c>
       <c r="L20">
-        <v>1.016045233338504</v>
+        <v>1.017676494866129</v>
       </c>
       <c r="M20">
-        <v>1.025541433436915</v>
+        <v>1.02685002364801</v>
       </c>
       <c r="N20">
-        <v>1.007120248592883</v>
+        <v>1.010439522391635</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.02882799776069</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.029863623004219</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.01778669785331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.977082862497762</v>
+        <v>0.9798022893636125</v>
       </c>
       <c r="D21">
-        <v>1.000374720288757</v>
+        <v>1.002946498833388</v>
       </c>
       <c r="E21">
-        <v>0.9970796479276202</v>
+        <v>0.9993213156028457</v>
       </c>
       <c r="F21">
-        <v>1.007011424836135</v>
+        <v>1.008808772749714</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.036491658004584</v>
+        <v>1.037610869068548</v>
       </c>
       <c r="J21">
-        <v>1.007571001669608</v>
+        <v>1.010169432116708</v>
       </c>
       <c r="K21">
-        <v>1.015348996955597</v>
+        <v>1.017872263087429</v>
       </c>
       <c r="L21">
-        <v>1.012116559301012</v>
+        <v>1.014315557286072</v>
       </c>
       <c r="M21">
-        <v>1.021861170110132</v>
+        <v>1.023625160136236</v>
       </c>
       <c r="N21">
-        <v>1.005712288450793</v>
+        <v>1.009942380582801</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.025873888638886</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.027269996150401</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017187031893277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9730989937169804</v>
+        <v>0.9762695813123945</v>
       </c>
       <c r="D22">
-        <v>0.9976292323366291</v>
+        <v>1.000652063025032</v>
       </c>
       <c r="E22">
-        <v>0.9939643971499166</v>
+        <v>0.9965794994867768</v>
       </c>
       <c r="F22">
-        <v>1.004094445402592</v>
+        <v>1.006191157825594</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.035626297552081</v>
+        <v>1.036940632942381</v>
       </c>
       <c r="J22">
-        <v>1.005067050459836</v>
+        <v>1.00808785318211</v>
       </c>
       <c r="K22">
-        <v>1.013247801352271</v>
+        <v>1.016210613477576</v>
       </c>
       <c r="L22">
-        <v>1.009656376276511</v>
+        <v>1.012219023069924</v>
       </c>
       <c r="M22">
-        <v>1.019585224574269</v>
+        <v>1.021640956369099</v>
       </c>
       <c r="N22">
-        <v>1.004829423347264</v>
+        <v>1.009630243186636</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.024072590416044</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.02569960057244</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.016810607496276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9752208697038881</v>
+        <v>0.9781298983867541</v>
       </c>
       <c r="D23">
-        <v>0.9990910442180652</v>
+        <v>1.001855957941761</v>
       </c>
       <c r="E23">
-        <v>0.9956226641593386</v>
+        <v>0.9980202996490226</v>
       </c>
       <c r="F23">
-        <v>1.005646743039042</v>
+        <v>1.007569359983049</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.036088226201565</v>
+        <v>1.037290350626231</v>
       </c>
       <c r="J23">
-        <v>1.006400813393576</v>
+        <v>1.009176683802138</v>
       </c>
       <c r="K23">
-        <v>1.014367299675138</v>
+        <v>1.017078776069167</v>
       </c>
       <c r="L23">
-        <v>1.010966503498111</v>
+        <v>1.013317353611984</v>
       </c>
       <c r="M23">
-        <v>1.020796921668007</v>
+        <v>1.022682970322276</v>
       </c>
       <c r="N23">
-        <v>1.005299745556609</v>
+        <v>1.009750177198658</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.025031589274908</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.026524301655314</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017005875663043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9833598670216211</v>
+        <v>0.9853798287069516</v>
       </c>
       <c r="D24">
-        <v>1.004707996204123</v>
+        <v>1.006580086167662</v>
       </c>
       <c r="E24">
-        <v>1.002003898417233</v>
+        <v>1.003666937274834</v>
       </c>
       <c r="F24">
-        <v>1.011629439930041</v>
+        <v>1.01296299298227</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.03783740146</v>
+        <v>1.038654332776241</v>
       </c>
       <c r="J24">
-        <v>1.011513861956073</v>
+        <v>1.013452522265103</v>
       </c>
       <c r="K24">
-        <v>1.01865293553366</v>
+        <v>1.020492625157372</v>
       </c>
       <c r="L24">
-        <v>1.015995914505118</v>
+        <v>1.017629961954117</v>
       </c>
       <c r="M24">
-        <v>1.025455361751236</v>
+        <v>1.026766224982306</v>
       </c>
       <c r="N24">
-        <v>1.007101551492366</v>
+        <v>1.010422067003101</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.028718503733616</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.029755980640163</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017777239019172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9923961761529703</v>
+        <v>0.9937175013976489</v>
       </c>
       <c r="D25">
-        <v>1.010960140360306</v>
+        <v>1.012072839151346</v>
       </c>
       <c r="E25">
-        <v>1.009127257149104</v>
+        <v>1.010221951054126</v>
       </c>
       <c r="F25">
-        <v>1.018326224255118</v>
+        <v>1.019202053561515</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.039730803122353</v>
+        <v>1.040226552486656</v>
       </c>
       <c r="J25">
-        <v>1.017182177278501</v>
+        <v>1.018458162392512</v>
       </c>
       <c r="K25">
-        <v>1.023390663868577</v>
+        <v>1.024486586725692</v>
       </c>
       <c r="L25">
-        <v>1.021585517451109</v>
+        <v>1.022663630068704</v>
       </c>
       <c r="M25">
-        <v>1.03064655764635</v>
+        <v>1.031509419946674</v>
       </c>
       <c r="N25">
-        <v>1.009096232438371</v>
+        <v>1.011770546740873</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.032827043683477</v>
+        <v>1.033509948380959</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018687138658797</v>
       </c>
     </row>
   </sheetData>
